--- a/data/long_razon/P19_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P19_1-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>121,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-37,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>53,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-21,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,78; 62,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,49; 88,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 53,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,91; 45,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,65; 294,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,08; -4,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 35,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,5; 125,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 7,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-38,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-37,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-63,43; -0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 167,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,17; 30,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 79,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 105,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,37; -29,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 17,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 117,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,56; -3,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-31,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-10,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>122,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 89,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-54,27; -1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 21,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 23,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,71; 206,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,12; -21,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,73; 34,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 54,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-44,44; -8,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>64,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 86,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 94,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 70,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 43,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,17; 131,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,4; -18,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 46,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,96; 90,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,57; 3,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-30,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>74,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-33,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-32,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-28,29; 43,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 72,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-51,56; -5,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 84,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 176,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-52,96; -7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 41,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 82,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-46,57; -14,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-36,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-3,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 130,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 101,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-59,36; -1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 41,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 93,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 45,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 53,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 71,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 11,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-17,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>66,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-35,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 29,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 38,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,6; -1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 20,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>41,26; 96,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-43,97; -25,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 16,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>21,48; 55,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -16,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P19_1-Edad-long_razon.xlsx
+++ b/data/long_razon/P19_1-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.05494999309945559</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1633097567653427</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.07415942766458988</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4691366306406489</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5721245948945516</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.03349896116479405</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.226268141091286</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3516183843002107</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.005666647896746892</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1067951323397494</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.04541395319689692</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.5531463816492092</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.2072173379202854</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>-0.2790491196524994</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.3133366616306923</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.324635597801725</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3288135235408861</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3815897702629761</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.7192263330474082</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2898233297810552</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3629043354915251</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3432975890689562</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5995824496537079</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3814810937778774</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3876392867224295</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.2338309487660176</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.08746125950768073</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.4331318234656599</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.5037905238676482</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.2019875992784604</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.612619937747845</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.9342643936580053</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.4781682164617897</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-0.002456329636807309</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.731171232124128</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.7188442205413863</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.762591866531498</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.004777013196224749</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.7210579787331814</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.070989902546996</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.4407868748570142</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.31515368027057</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.05235148778247581</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.09480452937556411</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>1.118199863424836</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.2943632387655468</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6840512694027034</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.2483496319804993</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.4089813387752451</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.08356126105526486</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1361585177379214</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3190853028534581</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.5461869152712432</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.3305641906565458</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.005493495771014592</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.1041717677804092</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.5075883203236895</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.3850783035109613</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.3717120472509242</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.04936906697367381</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.5750087502508046</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.07005371421312692</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5161698740466868</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.7058878257770799</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.7066220440821649</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2596284648780579</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.1021714923668025</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.6897845982405322</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5846685686570966</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.3818063284951127</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.3701339582271994</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.1377303425037597</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.556452519298215</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.5995952219725149</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.4545905812253708</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.1768619188326792</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.648632197154324</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3448521412003785</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.05556452735966235</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.112241956754081</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6453115341232476</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.9673475128120349</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.324704235918419</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.09337302855976479</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.6148352176812498</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.216861030472061</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.114349373427076</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>-0.04704913012214832</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>-0.07961730333911698</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.555942768581337</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.1028306672532208</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3238405924584198</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2000753400082586</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.8764943822904507</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2527821627279353</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1171014980568282</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>1.249028101267728</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.4203955871632105</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.04831997211928964</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.1889926989999179</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.01978059778744096</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2175082220909337</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.3136621598900652</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.3189897230889104</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>-0.2188300751801797</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.285971129612356</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5624109576456404</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4449209279276377</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2738802325635658</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.5937763321510378</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3471941040068838</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.6504179487077955</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.565023359715732</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3100317375739386</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.4607119958201354</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2333602085744018</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.06600688765238759</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.4523498432957122</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0.04618173623681869</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.4350932109081762</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.7163989497433038</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-0.04560863138375134</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1457045787740443</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.905157897317871</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.3395733227375717</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2009627082451029</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.181661848101533</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.2048779739653098</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.2923660557491394</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.2297713014993213</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.2747229611654232</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.5609394232898257</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-0.09742290195804126</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.7191271760008157</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.1272092505147547</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.3486707729794037</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3479374267419627</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1719404622027448</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3177952072662481</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2251804502399907</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1133201385678645</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.6310409390125249</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.3614261687360985</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.09842960060666177</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.4160986680325796</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.2096431684564215</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4911887617376846</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.1542918562631165</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.2148382435091811</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.3215637280396166</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.05836759889838385</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.07718396716711265</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1753995989873657</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.6012697517649914</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.5358416768922923</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1812672672740707</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2084077002982206</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.5183503620054051</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3485340990910742</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.6418197382638627</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.02743890202773983</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.1802953546981038</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.3196220994119995</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.4042518998496193</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.5334733280369705</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.9977482182628157</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9386066755101161</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6708069246141979</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.03628667600450315</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.3048873444225044</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4719824381759365</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.263233444082013</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.1819324784147062</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.2394546803888611</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.09794243527905065</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5631149047101025</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.926915790771986</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.06323521913718347</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.04431579399792306</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>-0.07541431466728682</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.005490174290044548</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.2277230473681623</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2929657786351997</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.126968521038662</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.0334882510736669</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.1992967550680269</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.8026539175228183</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.3210258118692575</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.1678016658172225</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>-0.431067776309858</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>0.09265325452096722</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.4440618319105715</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>-0.307088855881623</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.1491107499811987</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>-0.2375247289435521</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.2740772266431633</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1571209327011102</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5058211621485257</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.3841747338316299</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.3784766804638415</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.1967450365828396</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.1176382133792108</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.5180493780262456</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3052355249228967</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.6596877082779226</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.1504501879554655</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.0943247677582997</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.4676748706082128</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.1945569331668322</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.4721937198974274</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.3989939305745511</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.7263843866674732</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.02427389901561904</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.9223849997234558</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.7595040580721486</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.7568137721803747</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>1.757166490055586</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>-0.04329721186690851</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.883057074061534</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>-0.01955313301687301</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.3973298199426661</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.8897288153143625</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>-0.1223849748228895</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>0.6907681806890585</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.05664225514645452</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.4609717453514119</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.1483188779136874</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.3852825763733647</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-0.2348950692278983</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.09763960692751111</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.02977226433077876</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.1700907728405288</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.06707803313473334</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.0960276763174404</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.7211526689381513</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.1430913224300703</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.161600887816979</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>-0.1622227353411324</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>-0.1567929602781664</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>0.314387019631465</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.10956894428788</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.3042959100950048</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.6349062694211401</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.5856765565891373</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.4891659337846936</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3583071166620899</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.2238459979987168</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.2631822876888559</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.4753868511458417</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.1528631869651652</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.1850272314785814</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.1498783928498955</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.3862326687289189</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.4488655700678531</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.1920370075448782</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.443912448433533</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.872188467549025</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-0.02449901641283425</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.3753729302188821</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.7637219728498136</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.3940929848924022</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.7646445262025571</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.6261100390848632</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.7175507764743405</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>2.659470831341721</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.5384651062128986</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.6135713893172292</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.1328429461315179</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>0.2450412918070366</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>1.150230615586372</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.07564934922269179</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1440625384017989</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.1816224537925206</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.1427282295515268</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.06088096452451417</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.04087722648806108</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.6411720695377573</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.3335127641723943</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.08132034240021202</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.07759265483102239</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.05740687709494711</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.368874639702324</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.2592146924531821</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>-0.1117407491384324</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.06949653059913047</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.0909363299287218</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.03817116360044379</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.3065542670104109</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.31525883490644</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.286766519075742</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.09573129025140978</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.3998438790707859</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.4156177774915839</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2272137378561366</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.2648842832406203</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.05967373235479988</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2142357577187449</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.3348521016740763</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.2334313680332863</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.215417050141006</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.2702248699683386</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3807493197976018</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.02726390133249928</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.05161939776865004</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2288554644908003</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.216286962598525</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.963361602163971</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>-0.2242516096930721</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.1020922583056128</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.1587553855801507</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.1861779832913458</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.5511696170896409</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>-0.1663250336915995</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.01713331668730904</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.1208748380412374</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
